--- a/工作进度安排表.xlsx
+++ b/工作进度安排表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PhpStudy\WWW\myHigo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>项目进度安排表</t>
   </si>
@@ -44,6 +39,9 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>开发人</t>
+  </si>
+  <si>
     <t>抓取整个页面</t>
   </si>
   <si>
@@ -62,6 +60,9 @@
     <t>13小时</t>
   </si>
   <si>
+    <t>小鲜肉</t>
+  </si>
+  <si>
     <t>识别验证码功能</t>
   </si>
   <si>
@@ -71,12 +72,18 @@
     <t>2小时</t>
   </si>
   <si>
+    <t>小六</t>
+  </si>
+  <si>
     <t>登录，登出</t>
   </si>
   <si>
     <t>登录目标系统，并保持登录状态。登出，清除状态</t>
   </si>
   <si>
+    <t>six</t>
+  </si>
+  <si>
     <t>封装请求</t>
   </si>
   <si>
@@ -101,6 +108,12 @@
     <t>和目标网站连通登录和登出的功能，注意关于cookies的处理</t>
   </si>
   <si>
+    <t>2016年7月11日12:52:07</t>
+  </si>
+  <si>
+    <t>2016年7月11日16:52:18</t>
+  </si>
+  <si>
     <t>从页面获取数据的请求</t>
   </si>
   <si>
@@ -122,6 +135,12 @@
     <t>网站前台登录页面</t>
   </si>
   <si>
+    <t>2016年7月11日10:20:37</t>
+  </si>
+  <si>
+    <t>2016年7月11日13:20:51</t>
+  </si>
+  <si>
     <t>网站操作显示</t>
   </si>
   <si>
@@ -131,35 +150,23 @@
     <t>46小时</t>
   </si>
   <si>
-    <t>开发人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鲜肉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,36 +182,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,9 +535,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -222,32 +787,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -537,41 +1141,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="151" customWidth="1"/>
     <col min="3" max="4" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -591,145 +1196,175 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -737,39 +1372,40 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A18:B18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="150.875" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -789,73 +1425,76 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/工作进度安排表.xlsx
+++ b/工作进度安排表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>项目进度安排表</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>1小时</t>
-  </si>
-  <si>
-    <t>解析页面</t>
-  </si>
-  <si>
-    <t>将抓取下来的页面进行解析，找到需要提交的参数的键值等。如果是存放在js中，则要从js中找出相应的键值和url进行保存。基本上涉及两个页面，7个左右的请求</t>
-  </si>
-  <si>
-    <t>13小时</t>
   </si>
   <si>
     <t>识别验证码功能</t>
@@ -145,10 +136,6 @@
   <si>
     <t>2天</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小鲜肉</t>
@@ -225,14 +212,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +528,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,12 +539,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -591,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -601,8 +588,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -612,8 +599,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -623,113 +610,110 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>40</v>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -745,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G3" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,89 +741,7 @@
     <col min="2" max="2" width="150.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/工作进度安排表.xlsx
+++ b/工作进度安排表.xlsx
@@ -162,11 +162,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,7 +178,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,10 +205,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,14 +268,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -261,51 +284,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,12 +328,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,54 +406,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,30 +490,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,49 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,148 +624,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -793,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1146,7 +1132,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1350,12 +1336,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
